--- a/190514_sim_length_conv.xlsx
+++ b/190514_sim_length_conv.xlsx
@@ -772,6 +772,8 @@
         <c:axId val="514141496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7.8"/>
+          <c:min val="5.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1795,7 +1797,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
